--- a/hebrewOutputs/hebrew82Comperation_10_Common_alpha=0.16.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_10_Common_alpha=0.16.xlsx
@@ -34,15 +34,15 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שלום </t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שלום </t>
-  </si>
-  <si>
     <t>הורה:</t>
   </si>
   <si>
@@ -166,6 +166,9 @@
     <t xml:space="preserve">לא לא לא </t>
   </si>
   <si>
+    <t>disagree</t>
+  </si>
+  <si>
     <t>תסביר לי קודם ...</t>
   </si>
   <si>
@@ -278,9 +281,6 @@
   </si>
   <si>
     <t xml:space="preserve"> זה לא נראה לי הגיוני שהוא,</t>
-  </si>
-  <si>
-    <t>disagree</t>
   </si>
   <si>
     <t xml:space="preserve">שהוא נמצא ב... לא יודע כאילו למה שיהיה לו כאילו למה שיהיה לו סכרת עכשיו? </t>
@@ -823,21 +823,21 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -854,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -882,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -893,7 +893,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -907,10 +907,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -921,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -935,10 +935,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -963,7 +963,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -977,7 +977,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -991,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1005,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1019,7 +1019,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1047,10 +1047,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1061,7 +1061,7 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1075,7 +1075,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1089,10 +1089,10 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1103,7 +1103,7 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1117,10 +1117,10 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1131,7 +1131,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1145,10 +1145,10 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1159,7 +1159,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1173,10 +1173,10 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1190,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1201,7 +1201,7 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1218,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1229,7 +1229,7 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1246,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1257,10 +1257,10 @@
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1271,7 +1271,7 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1279,13 +1279,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1293,41 +1293,41 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -1344,18 +1344,18 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -1363,41 +1363,41 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1405,13 +1405,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -1428,18 +1428,18 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1447,27 +1447,27 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1475,16 +1475,16 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1495,7 +1495,7 @@
         <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1517,27 +1517,27 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
         <v>41</v>
@@ -1554,7 +1554,7 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -1573,41 +1573,41 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -1615,13 +1615,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1629,13 +1629,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1677,21 +1677,21 @@
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1705,21 +1705,21 @@
         <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -1727,27 +1727,27 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
         <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -1761,21 +1761,21 @@
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -1783,27 +1783,27 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -1811,13 +1811,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1842,10 +1842,10 @@
         <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -1862,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1873,10 +1873,10 @@
         <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1890,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1901,10 +1901,10 @@
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1912,10 +1912,10 @@
         <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -1929,10 +1929,10 @@
         <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1940,10 +1940,10 @@
         <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1968,10 +1968,10 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -1988,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1999,10 +1999,10 @@
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2013,7 +2013,7 @@
         <v>41</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -2027,7 +2027,7 @@
         <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -2041,10 +2041,10 @@
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2069,7 +2069,7 @@
         <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2086,7 +2086,7 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2097,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2122,10 +2122,10 @@
         <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -2139,10 +2139,10 @@
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2156,7 +2156,7 @@
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2167,7 +2167,7 @@
         <v>28</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2181,10 +2181,10 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2195,7 +2195,7 @@
         <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -2209,10 +2209,10 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2223,10 +2223,10 @@
         <v>120</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2237,10 +2237,10 @@
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2248,13 +2248,13 @@
         <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2265,7 +2265,7 @@
         <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -2279,7 +2279,7 @@
         <v>28</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2290,13 +2290,13 @@
         <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2307,7 +2307,7 @@
         <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -2318,10 +2318,10 @@
         <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -2335,7 +2335,7 @@
         <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -2349,10 +2349,10 @@
         <v>130</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2363,7 +2363,7 @@
         <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -2377,10 +2377,10 @@
         <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2391,7 +2391,7 @@
         <v>32</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -2405,7 +2405,7 @@
         <v>92</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -2416,10 +2416,10 @@
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
@@ -2436,7 +2436,7 @@
         <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2447,7 +2447,7 @@
         <v>92</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -2458,13 +2458,13 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2475,7 +2475,7 @@
         <v>32</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -2492,7 +2492,7 @@
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2503,7 +2503,7 @@
         <v>117</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -2517,10 +2517,10 @@
         <v>48</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2528,10 +2528,10 @@
         <v>142</v>
       </c>
       <c r="B124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C124" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -2542,10 +2542,10 @@
         <v>143</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -2559,10 +2559,10 @@
         <v>145</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2573,10 +2573,10 @@
         <v>145</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2587,7 +2587,7 @@
         <v>148</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -2601,10 +2601,10 @@
         <v>92</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
